--- a/Crosswalk_2012/Crosswalk_chla.xlsx
+++ b/Crosswalk_2012/Crosswalk_chla.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\2018IRFiles\2018_WQAssessment\Crosswalk_2012List\Final_Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IR2018\Crosswalk_2012\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -139,9 +139,6 @@
   </si>
   <si>
     <t>OR_SR_1709000704_02_104018</t>
-  </si>
-  <si>
-    <t>OR_WS_170900120201_02_104554</t>
   </si>
   <si>
     <t>OR_WS_170900100401_02_104506</t>
@@ -376,6 +373,9 @@
   </si>
   <si>
     <t>USGS</t>
+  </si>
+  <si>
+    <t>OR_WS_170900120201_02_104554.2</t>
   </si>
 </sst>
 </file>
@@ -771,16 +771,16 @@
         <v>40</v>
       </c>
       <c r="C2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D2" t="s">
         <v>11</v>
       </c>
       <c r="E2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F2" t="s">
         <v>76</v>
-      </c>
-      <c r="F2" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:16384" x14ac:dyDescent="0.25">
@@ -791,16 +791,16 @@
         <v>40</v>
       </c>
       <c r="C3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D3" t="s">
         <v>12</v>
       </c>
       <c r="E3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F3" t="s">
         <v>76</v>
-      </c>
-      <c r="F3" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:16384" x14ac:dyDescent="0.25">
@@ -811,16 +811,16 @@
         <v>40</v>
       </c>
       <c r="C4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D4" t="s">
         <v>13</v>
       </c>
       <c r="E4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F4" t="s">
         <v>76</v>
-      </c>
-      <c r="F4" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:16384" x14ac:dyDescent="0.25">
@@ -831,13 +831,13 @@
         <v>40</v>
       </c>
       <c r="C5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E5" t="s">
         <v>80</v>
-      </c>
-      <c r="E5" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:16384" ht="17.25" x14ac:dyDescent="0.3">
@@ -848,16 +848,16 @@
         <v>40</v>
       </c>
       <c r="C6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:16384" x14ac:dyDescent="0.25">
@@ -868,16 +868,16 @@
         <v>40</v>
       </c>
       <c r="C7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
@@ -17266,16 +17266,16 @@
         <v>40</v>
       </c>
       <c r="C8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:16384" ht="17.25" x14ac:dyDescent="0.3">
@@ -17286,16 +17286,16 @@
         <v>40</v>
       </c>
       <c r="C9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:16384" ht="17.25" x14ac:dyDescent="0.3">
@@ -17306,16 +17306,16 @@
         <v>40</v>
       </c>
       <c r="C10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:16384" ht="17.25" x14ac:dyDescent="0.3">
@@ -17326,16 +17326,16 @@
         <v>40</v>
       </c>
       <c r="C11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:16384" ht="17.25" x14ac:dyDescent="0.3">
@@ -17346,16 +17346,16 @@
         <v>40</v>
       </c>
       <c r="C12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:16384" ht="17.25" x14ac:dyDescent="0.3">
@@ -17366,16 +17366,16 @@
         <v>40</v>
       </c>
       <c r="C13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:16384" ht="17.25" x14ac:dyDescent="0.3">
@@ -17386,16 +17386,16 @@
         <v>40</v>
       </c>
       <c r="C14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15" spans="1:16384" ht="17.25" x14ac:dyDescent="0.3">
@@ -17406,16 +17406,16 @@
         <v>40</v>
       </c>
       <c r="C15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="16" spans="1:16384" ht="17.25" x14ac:dyDescent="0.3">
@@ -17426,16 +17426,16 @@
         <v>40</v>
       </c>
       <c r="C16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
@@ -17446,16 +17446,16 @@
         <v>40</v>
       </c>
       <c r="C17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>19</v>
       </c>
       <c r="E17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
@@ -17466,16 +17466,16 @@
         <v>40</v>
       </c>
       <c r="C18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
@@ -17486,16 +17486,16 @@
         <v>40</v>
       </c>
       <c r="C19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>20</v>
       </c>
       <c r="E19" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
@@ -17506,16 +17506,16 @@
         <v>40</v>
       </c>
       <c r="C20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -17526,16 +17526,16 @@
         <v>40</v>
       </c>
       <c r="C21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
       </c>
       <c r="E21" t="s">
+        <v>75</v>
+      </c>
+      <c r="F21" t="s">
         <v>76</v>
-      </c>
-      <c r="F21" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
@@ -17546,16 +17546,16 @@
         <v>40</v>
       </c>
       <c r="C22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>22</v>
       </c>
       <c r="E22" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F22" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
@@ -17566,16 +17566,16 @@
         <v>40</v>
       </c>
       <c r="C23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>23</v>
       </c>
       <c r="E23" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
@@ -17586,16 +17586,16 @@
         <v>40</v>
       </c>
       <c r="C24" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>24</v>
       </c>
       <c r="E24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F24" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -17606,16 +17606,16 @@
         <v>40</v>
       </c>
       <c r="C25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D25" t="s">
         <v>25</v>
       </c>
       <c r="E25" t="s">
+        <v>75</v>
+      </c>
+      <c r="F25" t="s">
         <v>76</v>
-      </c>
-      <c r="F25" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -17626,13 +17626,13 @@
         <v>40</v>
       </c>
       <c r="C26" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D26" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E26" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -17643,16 +17643,16 @@
         <v>40</v>
       </c>
       <c r="C27" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D27" t="s">
         <v>26</v>
       </c>
       <c r="E27" t="s">
+        <v>75</v>
+      </c>
+      <c r="F27" t="s">
         <v>76</v>
-      </c>
-      <c r="F27" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -17663,13 +17663,13 @@
         <v>40</v>
       </c>
       <c r="C28" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D28" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E28" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -17680,16 +17680,16 @@
         <v>40</v>
       </c>
       <c r="C29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D29" t="s">
         <v>27</v>
       </c>
       <c r="E29" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F29" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -17700,16 +17700,16 @@
         <v>40</v>
       </c>
       <c r="C30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D30" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E30" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F30" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -17720,16 +17720,16 @@
         <v>40</v>
       </c>
       <c r="C31" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D31" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E31" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F31" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
@@ -17740,16 +17740,16 @@
         <v>40</v>
       </c>
       <c r="C32" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>28</v>
       </c>
       <c r="E32" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F32" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
@@ -17760,16 +17760,16 @@
         <v>40</v>
       </c>
       <c r="C33" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E33" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F33" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
@@ -17780,16 +17780,16 @@
         <v>40</v>
       </c>
       <c r="C34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E34" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F34" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
@@ -17800,16 +17800,16 @@
         <v>40</v>
       </c>
       <c r="C35" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>29</v>
       </c>
       <c r="E35" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F35" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
@@ -17820,16 +17820,16 @@
         <v>40</v>
       </c>
       <c r="C36" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D36" s="4" t="s">
         <v>30</v>
       </c>
       <c r="E36" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F36" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
@@ -17840,16 +17840,16 @@
         <v>40</v>
       </c>
       <c r="C37" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D37" s="4" t="s">
         <v>31</v>
       </c>
       <c r="E37" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F37" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
@@ -17860,13 +17860,13 @@
         <v>40</v>
       </c>
       <c r="C38" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E38" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
@@ -17877,16 +17877,16 @@
         <v>40</v>
       </c>
       <c r="C39" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D39" s="4" t="s">
         <v>32</v>
       </c>
       <c r="E39" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F39" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
@@ -17897,16 +17897,16 @@
         <v>40</v>
       </c>
       <c r="C40" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D40" s="4" t="s">
         <v>33</v>
       </c>
       <c r="E40" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F40" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
@@ -17917,16 +17917,16 @@
         <v>40</v>
       </c>
       <c r="C41" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D41" s="4" t="s">
         <v>34</v>
       </c>
       <c r="E41" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F41" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
@@ -17937,16 +17937,16 @@
         <v>40</v>
       </c>
       <c r="C42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E42" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F42" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
@@ -17957,16 +17957,16 @@
         <v>40</v>
       </c>
       <c r="C43" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D43" s="4" t="s">
         <v>35</v>
       </c>
       <c r="E43" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F43" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
@@ -17977,16 +17977,16 @@
         <v>40</v>
       </c>
       <c r="C44" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D44" s="4" t="s">
         <v>36</v>
       </c>
       <c r="E44" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F44" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
@@ -17997,16 +17997,16 @@
         <v>40</v>
       </c>
       <c r="C45" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E45" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F45" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
@@ -18017,16 +18017,16 @@
         <v>40</v>
       </c>
       <c r="C46" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E46" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F46" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
@@ -18037,16 +18037,16 @@
         <v>40</v>
       </c>
       <c r="C47" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>37</v>
+        <v>115</v>
       </c>
       <c r="E47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F47" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
@@ -18057,16 +18057,16 @@
         <v>40</v>
       </c>
       <c r="C48" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E48" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F48" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
@@ -18077,16 +18077,16 @@
         <v>40</v>
       </c>
       <c r="C49" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E49" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F49" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
@@ -18097,16 +18097,16 @@
         <v>40</v>
       </c>
       <c r="C50" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E50" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F50" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
@@ -18117,16 +18117,16 @@
         <v>40</v>
       </c>
       <c r="C51" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E51" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F51" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
@@ -18137,16 +18137,16 @@
         <v>40</v>
       </c>
       <c r="C52" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E52" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F52" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
@@ -18157,16 +18157,16 @@
         <v>40</v>
       </c>
       <c r="C53" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E53" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F53" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
@@ -18177,16 +18177,16 @@
         <v>40</v>
       </c>
       <c r="C54" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E54" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F54" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
@@ -18197,16 +18197,16 @@
         <v>40</v>
       </c>
       <c r="C55" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E55" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F55" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -18217,16 +18217,16 @@
         <v>40</v>
       </c>
       <c r="C56" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D56" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E56" t="s">
+        <v>75</v>
+      </c>
+      <c r="F56" t="s">
         <v>76</v>
-      </c>
-      <c r="F56" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
@@ -18237,16 +18237,16 @@
         <v>40</v>
       </c>
       <c r="C57" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D57" s="4" t="s">
         <v>36</v>
       </c>
       <c r="E57" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F57" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
@@ -18257,16 +18257,16 @@
         <v>40</v>
       </c>
       <c r="C58" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D58" s="4" t="s">
         <v>29</v>
       </c>
       <c r="E58" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F58" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -18277,16 +18277,16 @@
         <v>40</v>
       </c>
       <c r="C59" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D59" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E59" t="s">
+        <v>75</v>
+      </c>
+      <c r="F59" t="s">
         <v>76</v>
-      </c>
-      <c r="F59" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
@@ -18297,16 +18297,16 @@
         <v>40</v>
       </c>
       <c r="C60" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E60" t="s">
+        <v>75</v>
+      </c>
+      <c r="F60" t="s">
         <v>76</v>
-      </c>
-      <c r="F60" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
@@ -18317,13 +18317,13 @@
         <v>40</v>
       </c>
       <c r="C61" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E61" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -18334,16 +18334,16 @@
         <v>40</v>
       </c>
       <c r="C62" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D62" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E62" t="s">
+        <v>75</v>
+      </c>
+      <c r="F62" t="s">
         <v>76</v>
-      </c>
-      <c r="F62" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -18354,16 +18354,16 @@
         <v>40</v>
       </c>
       <c r="C63" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D63" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E63" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F63" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
@@ -18374,16 +18374,16 @@
         <v>40</v>
       </c>
       <c r="C64" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E64" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F64" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
@@ -18394,16 +18394,16 @@
         <v>40</v>
       </c>
       <c r="C65" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E65" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F65" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
@@ -18414,16 +18414,16 @@
         <v>40</v>
       </c>
       <c r="C66" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E66" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F66" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
@@ -18434,16 +18434,16 @@
         <v>40</v>
       </c>
       <c r="C67" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E67" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F67" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
@@ -18454,16 +18454,16 @@
         <v>40</v>
       </c>
       <c r="C68" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E68" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F68" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
@@ -18474,16 +18474,16 @@
         <v>40</v>
       </c>
       <c r="C69" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E69" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F69" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -18494,16 +18494,16 @@
         <v>40</v>
       </c>
       <c r="C70" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D70" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E70" t="s">
+        <v>75</v>
+      </c>
+      <c r="F70" t="s">
         <v>76</v>
-      </c>
-      <c r="F70" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
@@ -18514,16 +18514,16 @@
         <v>40</v>
       </c>
       <c r="C71" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E71" t="s">
+        <v>75</v>
+      </c>
+      <c r="F71" t="s">
         <v>76</v>
-      </c>
-      <c r="F71" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
@@ -18534,16 +18534,16 @@
         <v>40</v>
       </c>
       <c r="C72" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E72" t="s">
+        <v>75</v>
+      </c>
+      <c r="F72" t="s">
         <v>76</v>
-      </c>
-      <c r="F72" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
@@ -18554,13 +18554,13 @@
         <v>40</v>
       </c>
       <c r="C73" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E73" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
@@ -18571,13 +18571,13 @@
         <v>40</v>
       </c>
       <c r="C74" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E74" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
@@ -18588,13 +18588,13 @@
         <v>40</v>
       </c>
       <c r="C75" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E75" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -18605,16 +18605,16 @@
         <v>40</v>
       </c>
       <c r="C76" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D76" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E76" t="s">
+        <v>75</v>
+      </c>
+      <c r="F76" t="s">
         <v>76</v>
-      </c>
-      <c r="F76" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
@@ -18625,16 +18625,16 @@
         <v>40</v>
       </c>
       <c r="C77" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E77" t="s">
+        <v>75</v>
+      </c>
+      <c r="F77" t="s">
         <v>76</v>
-      </c>
-      <c r="F77" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
@@ -18645,13 +18645,13 @@
         <v>40</v>
       </c>
       <c r="C78" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E78" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
@@ -18662,16 +18662,16 @@
         <v>40</v>
       </c>
       <c r="C79" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E79" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F79" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
@@ -18682,13 +18682,13 @@
         <v>40</v>
       </c>
       <c r="C80" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D80" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E80" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
@@ -18699,13 +18699,13 @@
         <v>40</v>
       </c>
       <c r="C81" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D81" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E81" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
@@ -18716,13 +18716,13 @@
         <v>40</v>
       </c>
       <c r="C82" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D82" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E82" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
@@ -18733,13 +18733,13 @@
         <v>40</v>
       </c>
       <c r="C83" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D83" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E83" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
@@ -18750,16 +18750,16 @@
         <v>40</v>
       </c>
       <c r="C84" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D84" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E84" t="s">
+        <v>75</v>
+      </c>
+      <c r="F84" t="s">
         <v>76</v>
-      </c>
-      <c r="F84" t="s">
-        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -18808,10 +18808,10 @@
         <v>40</v>
       </c>
       <c r="C2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -18822,10 +18822,10 @@
         <v>40</v>
       </c>
       <c r="C3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -18836,10 +18836,10 @@
         <v>40</v>
       </c>
       <c r="C4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -18850,10 +18850,10 @@
         <v>40</v>
       </c>
       <c r="C5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -18864,10 +18864,10 @@
         <v>40</v>
       </c>
       <c r="C6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -18878,10 +18878,10 @@
         <v>40</v>
       </c>
       <c r="C7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -18892,10 +18892,10 @@
         <v>40</v>
       </c>
       <c r="C8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -18906,10 +18906,10 @@
         <v>40</v>
       </c>
       <c r="C9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -18920,10 +18920,10 @@
         <v>40</v>
       </c>
       <c r="C10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -18934,10 +18934,10 @@
         <v>40</v>
       </c>
       <c r="C11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -18948,10 +18948,10 @@
         <v>40</v>
       </c>
       <c r="C12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -18962,10 +18962,10 @@
         <v>40</v>
       </c>
       <c r="C13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -18976,10 +18976,10 @@
         <v>40</v>
       </c>
       <c r="C14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -18990,10 +18990,10 @@
         <v>40</v>
       </c>
       <c r="C15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -19004,10 +19004,10 @@
         <v>40</v>
       </c>
       <c r="C16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -19018,10 +19018,10 @@
         <v>40</v>
       </c>
       <c r="C17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -19032,10 +19032,10 @@
         <v>40</v>
       </c>
       <c r="C18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -19046,10 +19046,10 @@
         <v>40</v>
       </c>
       <c r="C19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -19060,10 +19060,10 @@
         <v>40</v>
       </c>
       <c r="C20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -19074,10 +19074,10 @@
         <v>40</v>
       </c>
       <c r="C21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -19088,10 +19088,10 @@
         <v>40</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -19102,10 +19102,10 @@
         <v>40</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -19119,7 +19119,7 @@
         <v>13173600</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
